--- a/dl/info/INFO-skilled-FLYabroad.xlsx
+++ b/dl/info/INFO-skilled-FLYabroad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="4695" windowWidth="19320" windowHeight="6420"/>
+    <workbookView xWindow="312" yWindow="4692" windowWidth="19320" windowHeight="6420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总括" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="271">
   <si>
     <t>姓氏</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1804,10 +1804,6 @@
   </si>
   <si>
     <t>登陆或到达过的该国城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要填名字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2858,28 +2854,28 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3235,21 +3231,21 @@
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.375" customWidth="1"/>
-    <col min="2" max="2" width="37.625" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -3261,7 +3257,7 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="71" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D2" s="26"/>
     </row>
@@ -3271,7 +3267,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" s="25"/>
     </row>
@@ -3321,7 +3317,7 @@
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D8" s="25"/>
     </row>
@@ -3331,7 +3327,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="25"/>
     </row>
@@ -3341,7 +3337,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="25"/>
     </row>
@@ -3351,23 +3347,23 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="24" t="s">
@@ -3377,7 +3373,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="24" t="s">
@@ -3411,17 +3407,17 @@
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="62" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" s="7"/>
     </row>
@@ -3431,7 +3427,7 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -3441,13 +3437,13 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="72" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="69" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="59" t="s">
@@ -3457,7 +3453,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>190</v>
@@ -3476,7 +3472,7 @@
     </row>
     <row r="24" spans="1:4" ht="40.5" customHeight="1">
       <c r="A24" s="70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="79"/>
@@ -3484,7 +3480,7 @@
     </row>
     <row r="25" spans="1:4" ht="13.5" customHeight="1">
       <c r="A25" s="83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" s="84"/>
       <c r="C25" s="84"/>
@@ -3506,15 +3502,15 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="89" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
       <c r="D28" s="90"/>
     </row>
-    <row r="29" spans="1:4" ht="14.25">
+    <row r="29" spans="1:4" ht="15.6">
       <c r="A29" s="73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
@@ -3559,18 +3555,18 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.75" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="97" t="s">
         <v>91</v>
       </c>
@@ -3708,7 +3704,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25">
+    <row r="13" spans="1:9" ht="15.6">
       <c r="A13" s="97" t="s">
         <v>96</v>
       </c>
@@ -3861,7 +3857,7 @@
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
       <c r="A26" s="73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" s="109"/>
       <c r="C26" s="109"/>
@@ -3893,31 +3889,31 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -4036,20 +4032,20 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="102" t="s">
+    <row r="12" spans="1:9" ht="15.6">
+      <c r="A12" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="1:9" ht="27">
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+    </row>
+    <row r="13" spans="1:9" ht="28.8">
       <c r="A13" s="27" t="s">
         <v>163</v>
       </c>
@@ -4181,7 +4177,7 @@
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
       <c r="A24" s="73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B24" s="109"/>
       <c r="C24" s="109"/>
@@ -4213,23 +4209,23 @@
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="17.399999999999999">
       <c r="A1" s="119" t="s">
         <v>169</v>
       </c>
@@ -4245,7 +4241,7 @@
       <c r="K1" s="120"/>
       <c r="L1" s="121"/>
     </row>
-    <row r="2" spans="1:12" ht="27">
+    <row r="2" spans="1:12" ht="28.8">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>112</v>
@@ -4361,9 +4357,9 @@
       <c r="K7" s="19"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="18.75">
+    <row r="9" spans="1:12" ht="17.399999999999999">
       <c r="A9" s="119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="120"/>
       <c r="C9" s="120"/>
@@ -4470,7 +4466,7 @@
       <c r="F15" s="122"/>
       <c r="G15" s="122"/>
     </row>
-    <row r="16" spans="1:12" ht="18.75">
+    <row r="16" spans="1:12" ht="17.399999999999999">
       <c r="A16" s="119" t="s">
         <v>149</v>
       </c>
@@ -4546,7 +4542,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="23" spans="1:7" ht="18.75">
+    <row r="23" spans="1:7" ht="17.399999999999999">
       <c r="A23" s="119" t="s">
         <v>150</v>
       </c>
@@ -4616,9 +4612,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75">
+    <row r="29" spans="1:7" ht="17.399999999999999">
       <c r="A29" s="119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B29" s="120"/>
       <c r="C29" s="120"/>
@@ -4670,9 +4666,9 @@
       <c r="F32" s="45"/>
       <c r="G32" s="45"/>
     </row>
-    <row r="33" spans="1:8" ht="18.75">
+    <row r="33" spans="1:8" ht="17.399999999999999">
       <c r="A33" s="119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="120"/>
       <c r="C33" s="120"/>
@@ -4732,7 +4728,7 @@
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1">
       <c r="A37" s="73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
@@ -4770,15 +4766,15 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="30.75" style="37" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="30.77734375" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -4928,7 +4924,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4964,7 +4960,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4991,7 +4987,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -5000,7 +4996,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5149,9 +5145,9 @@
       <c r="D40" s="92"/>
       <c r="E40" s="92"/>
     </row>
-    <row r="41" spans="1:5" ht="14.25">
+    <row r="41" spans="1:5" ht="15.6">
       <c r="A41" s="93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B41" s="94"/>
       <c r="C41" s="94"/>
@@ -5181,23 +5177,23 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -5394,9 +5390,9 @@
       <c r="J13" s="95"/>
       <c r="K13" s="95"/>
     </row>
-    <row r="15" spans="1:11" ht="14.25">
+    <row r="15" spans="1:11" ht="15.6">
       <c r="A15" s="96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="97"/>
       <c r="C15" s="97"/>
@@ -5621,9 +5617,9 @@
       <c r="J29" s="99"/>
       <c r="K29" s="99"/>
     </row>
-    <row r="30" spans="1:11" ht="14.25">
+    <row r="30" spans="1:11" ht="15.6">
       <c r="A30" s="93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="94"/>
       <c r="C30" s="94"/>
@@ -5668,45 +5664,45 @@
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="4.875" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="46.375" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="101" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="106" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="F2" s="103" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="F2" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5835,44 +5831,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9" ht="240.75" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
     </row>
     <row r="12" spans="1:9" ht="11.25" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="105" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="F13" s="103" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="F13" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6001,38 +5997,32 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="F13:I13"/>
@@ -6040,6 +6030,12 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6058,20 +6054,20 @@
       <selection activeCell="F13" sqref="F13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="4.875" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="46.375" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="46.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
+    <row r="1" spans="1:9" ht="15.6">
       <c r="A1" s="97" t="s">
         <v>154</v>
       </c>
@@ -6085,18 +6081,18 @@
       <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="F2" s="103" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="F2" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6225,44 +6221,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9" ht="246" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
     </row>
     <row r="12" spans="1:9" ht="6" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="F13" s="103" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="F13" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6391,32 +6387,38 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -6424,12 +6426,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6448,45 +6444,45 @@
       <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="46.875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="46.875" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:9" ht="15.6">
+      <c r="A1" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="F2" s="103" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="F2" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6615,44 +6611,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9" ht="252" customHeight="1">
       <c r="A11" s="78"/>
       <c r="B11" s="79"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
     </row>
     <row r="12" spans="1:9" ht="6" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="F13" s="103" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="F13" s="105" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6781,32 +6777,38 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="103" t="s">
+      <c r="A21" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="103" t="s">
+      <c r="F21" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -6814,12 +6816,6 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6831,22 +6827,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
     <col min="7" max="7" width="44" customWidth="1"/>
-    <col min="8" max="8" width="25.375" customWidth="1"/>
-    <col min="9" max="9" width="5.75" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
@@ -6863,7 +6859,7 @@
       <c r="I1" s="97"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
         <v>63</v>
@@ -6895,9 +6891,7 @@
       <c r="A3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="58"/>
@@ -7010,7 +7004,7 @@
       <c r="H11" s="97"/>
       <c r="I11" s="97"/>
     </row>
-    <row r="12" spans="1:10" ht="27">
+    <row r="12" spans="1:10" ht="28.8">
       <c r="A12" s="2"/>
       <c r="B12" s="13" t="s">
         <v>63</v>
@@ -7041,9 +7035,7 @@
       <c r="A13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>234</v>
-      </c>
+      <c r="B13" s="57"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="58"/>
@@ -7147,7 +7139,7 @@
       <c r="H20" s="110"/>
       <c r="I20" s="110"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25">
+    <row r="22" spans="1:9" ht="15.6">
       <c r="A22" s="97" t="s">
         <v>109</v>
       </c>
@@ -7160,7 +7152,7 @@
       <c r="H22" s="97"/>
       <c r="I22" s="97"/>
     </row>
-    <row r="23" spans="1:9" ht="27">
+    <row r="23" spans="1:9" ht="28.8">
       <c r="A23" s="2"/>
       <c r="B23" s="13" t="s">
         <v>63</v>
@@ -7258,7 +7250,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25">
+    <row r="30" spans="1:9" ht="15.6">
       <c r="A30" s="97" t="s">
         <v>110</v>
       </c>
@@ -7271,7 +7263,7 @@
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
     </row>
-    <row r="31" spans="1:9" ht="27">
+    <row r="31" spans="1:9" ht="28.8">
       <c r="A31" s="2"/>
       <c r="B31" s="13" t="s">
         <v>63</v>
@@ -7369,9 +7361,9 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25">
+    <row r="37" spans="1:9" ht="15.6">
       <c r="A37" s="73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" s="109"/>
       <c r="C37" s="109"/>
@@ -7406,15 +7398,15 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="47.75" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
@@ -7432,7 +7424,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="27">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="18"/>
       <c r="B2" s="53" t="s">
         <v>81</v>
@@ -7668,7 +7660,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" ht="27">
+    <row r="17" spans="1:11" ht="28.8">
       <c r="A17" s="18"/>
       <c r="B17" s="53" t="s">
         <v>69</v>
@@ -7815,7 +7807,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="14.25">
+    <row r="26" spans="1:11" ht="15.6">
       <c r="A26" s="112" t="s">
         <v>202</v>
       </c>
@@ -7907,7 +7899,7 @@
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1">
       <c r="A32" s="73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" s="109"/>
       <c r="C32" s="109"/>
@@ -8186,13 +8178,13 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="88.875" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="88.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
@@ -8532,22 +8524,22 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1">
       <c r="A25" s="73" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
